--- a/設計書/方針.xlsx
+++ b/設計書/方針.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A6A28-9937-4B1E-B4B8-449C594EDE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9889581-BDAE-4F43-84D1-2FCC6D91A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="3015" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="やりたいこと" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="順位表json" sheetId="2" r:id="rId3"/>
     <sheet name="コンテストhtml" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -628,19 +639,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -664,9 +673,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
+      <xdr:colOff>211455</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -687,8 +696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="882015" y="371475"/>
-          <a:ext cx="1270635" cy="781050"/>
+          <a:off x="878205" y="367665"/>
+          <a:ext cx="1274445" cy="784860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,7 +743,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -755,8 +764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="367665"/>
-          <a:ext cx="1238250" cy="784860"/>
+          <a:off x="2152650" y="371475"/>
+          <a:ext cx="1238250" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,7 +811,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -823,8 +832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="367665"/>
-          <a:ext cx="1238250" cy="784860"/>
+          <a:off x="3390900" y="371475"/>
+          <a:ext cx="1238250" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,7 +877,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
+      <xdr:colOff>207645</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -876,7 +885,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -891,8 +900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="878205" y="1152525"/>
-          <a:ext cx="1274445" cy="784860"/>
+          <a:off x="874395" y="1152525"/>
+          <a:ext cx="1278255" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,13 +947,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -959,8 +968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="1156335"/>
-          <a:ext cx="1238250" cy="781050"/>
+          <a:off x="2152650" y="1158240"/>
+          <a:ext cx="1238250" cy="775335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,13 +1015,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1027,8 +1036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="1156335"/>
-          <a:ext cx="1238250" cy="781050"/>
+          <a:off x="3390900" y="1158240"/>
+          <a:ext cx="1238250" cy="775335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,7 +1347,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1392,9 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCCB17D-F709-417A-80CD-F8642B7C7891}">
   <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AE3:AF3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1428,349 +1435,125 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="S3" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="2:23">
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" spans="2:23">
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="2:23">
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="2:23">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="2:23">
       <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="2:23">
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" t="s">
         <v>99</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="7"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="2:23">
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="2:23">
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="7"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="2:23">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="2:23" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
         <v>4</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
